--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Google Drive\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18906763-1AC2-4074-8FA6-FA5AD82D1C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02DA72E-E41C-4CEA-A924-9DA3EAD7A3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>what</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Environmental management specialization</t>
+  </si>
+  <si>
+    <t>Thesis title: The Effect of glyphosate on the growth and reproduction of Digitaria insularis</t>
+  </si>
+  <si>
+    <t>Funding CAPES / BraFagri  (Brazil and France university partnership for high-performing students)</t>
+  </si>
+  <si>
+    <t>Final work title: Desiccation management and post emergent to control Digitaria insularis.</t>
   </si>
 </sst>
 </file>
@@ -929,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,7 +998,9 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1004,6 +1015,9 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1017,6 +1031,9 @@
       </c>
       <c r="D5" t="s">
         <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
